--- a/2/setosa_petal_x.xlsx
+++ b/2/setosa_petal_x.xlsx
@@ -366,62 +366,62 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.28</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.6000000000000001</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.3200000000000001</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.11</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.3200000000000001</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.28</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.39</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.76</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
@@ -431,87 +431,87 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.96</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.3</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.42</v>
+        <v>0.6400000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.28</v>
+        <v>0.3200000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.85</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.28</v>
+        <v>0.3200000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.28</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.6000000000000001</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.3200000000000001</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.26</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.6800000000000001</v>
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>

--- a/2/setosa_petal_x.xlsx
+++ b/2/setosa_petal_x.xlsx
@@ -366,52 +366,52 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.14</v>
+        <v>0.6800000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.85</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.39</v>
+        <v>0.3200000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.51</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.76</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="12">
@@ -421,32 +421,32 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.3</v>
+        <v>0.3200000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.15</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.26</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.96</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.6400000000000001</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.3200000000000001</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19">
@@ -461,22 +461,22 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.3200000000000001</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.6000000000000001</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.26</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="25">
@@ -486,32 +486,32 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.15</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.34</v>
+        <v>0.3200000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.6000000000000001</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
